--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2984714.942199344</v>
+        <v>2989654.205048377</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>765667.5413433851</v>
+        <v>792958.8991546616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>145.5687411441668</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.7769566578278</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>108.1568209712021</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4344423673205</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>100.9623642021449</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>321.1328346678443</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>86.93937322759545</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.58276652364323</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>91.97546116399354</v>
       </c>
       <c r="C13" t="n">
-        <v>24.29718497126803</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>94.47664624723514</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>201.9329882306601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.23143139916266</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>277.7738553281042</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9576419790507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>222.0263362645364</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>157.918058838934</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.64843562452423</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036446</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2550.109958549368</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2331.47529152143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2331.47529152143</v>
+        <v>2573.131963081023</v>
       </c>
       <c r="V2" t="n">
-        <v>2000.41240417786</v>
+        <v>2242.069075737452</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.41240417786</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.94664591678</v>
+        <v>1515.834662206258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.94664591678</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0636002298169</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0636002298169</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0636002298169</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="E4" t="n">
-        <v>369.1505066474238</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>222.2605591495134</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4497,43 +4497,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600566</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1916.245359491378</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C5" t="n">
-        <v>1547.282842550966</v>
+        <v>966.622729332398</v>
       </c>
       <c r="D5" t="n">
-        <v>1189.017143944216</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>803.2288913459713</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>392.2429865563637</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>378.3195824949547</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791649</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="C7" t="n">
-        <v>224.6669506791649</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D7" t="n">
-        <v>224.6669506791649</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>76.75385709677175</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>76.75385709677175</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>76.75385709677175</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>76.75385709677175</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>76.75385709677175</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791649</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791649</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028583</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>176.3075386346571</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>944.6756850271186</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1749.087263291269</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O12" t="n">
-        <v>2418.551024593929</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2591.885251391686</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.7597025423748</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5232,19 +5232,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>303.4081673726145</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.4081673726145</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,19 +5290,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5345,28 +5345,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
         <v>2056.693778606511</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>755.6843634038122</v>
+        <v>755.6843634038116</v>
       </c>
       <c r="M21" t="n">
-        <v>1524.052509796274</v>
+        <v>1524.052509796273</v>
       </c>
       <c r="N21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>981.7980808734433</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6208,16 +6208,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1218.336618711332</v>
       </c>
       <c r="V28" t="n">
-        <v>789.0753054710162</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W28" t="n">
-        <v>499.6581354340557</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,34 +6457,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.5728295347034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,34 +6928,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7265,16 +7265,16 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7502,16 +7502,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.685527502827</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.685527502827</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.685527502827</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1335.881268530309</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1112.095853319815</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>822.9672145333731</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>568.2827263274862</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>278.8655562905255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>220.6309463926534</v>
+        <v>220.6309463926526</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.85651901794375</v>
       </c>
       <c r="C13" t="n">
-        <v>142.9496361273598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338565</v>
+        <v>131.233009141802</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>84.59001010593093</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>92.20253124740651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>8.463497070473124</v>
       </c>
       <c r="V28" t="n">
-        <v>57.18000134477734</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>64.21101613404099</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>9.328762259693832</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.31591677926858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
@@ -26331,31 +26331,31 @@
         <v>606095.0425934487</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="J2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="K2" t="n">
-        <v>606095.0425934481</v>
-      </c>
       <c r="L2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26429,31 +26429,31 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759186</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905759134</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137533</v>
+        <v>-175578.7248137531</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007916</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.1544007914</v>
       </c>
       <c r="E6" t="n">
-        <v>-12814.70478246184</v>
+        <v>-11937.57264871226</v>
       </c>
       <c r="F6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="G6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.463828184</v>
       </c>
       <c r="H6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.4638281834</v>
       </c>
       <c r="I6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="J6" t="n">
-        <v>335922.1125018415</v>
+        <v>336799.2446355909</v>
       </c>
       <c r="K6" t="n">
-        <v>512345.3316944339</v>
+        <v>513222.463828184</v>
       </c>
       <c r="L6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281835</v>
       </c>
       <c r="M6" t="n">
-        <v>377544.3164605972</v>
+        <v>378421.4485943467</v>
       </c>
       <c r="N6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="O6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="P6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.463828184</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>28.84697166480476</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>128.4472108504615</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.27714167536705</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>45.87535989173044</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>253.7206774185381</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>2.789938096512856</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>92.89260695434184</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>22.61719266489377</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>263.460981998226</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.33357018799795</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31044,10 +31044,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,13 +31840,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>218.4437203600472</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31861,10 +31861,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>171.9901114440537</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32089,7 +32089,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32572,19 +32572,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,16 +32727,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>224.6051223555648</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>224.6051223555648</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,16 +33903,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>213.8677363986961</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>120.960087805292</v>
+        <v>110.222701848423</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>79.88934058017304</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
@@ -35503,13 +35503,13 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>32.0083373580322</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35737,7 +35737,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>82.07656661277925</v>
+        <v>82.07656661277844</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>572.6057846157851</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>572.6057846157851</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>561.8683986589164</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>468.9607500655122</v>
+        <v>458.2233641086432</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
